--- a/python/Pi.xlsx
+++ b/python/Pi.xlsx
@@ -409,49 +409,49 @@
     </row>
     <row r="2" spans="1:15">
       <c r="A2" s="2">
-        <v>0.144621418148883</v>
+        <v>-16.381069818558</v>
       </c>
       <c r="B2" s="2">
-        <v>0.0237456409036631</v>
+        <v>-4.59608636870492</v>
       </c>
       <c r="C2" s="2">
-        <v>0.0273939121130273</v>
+        <v>-2.57244949097709</v>
       </c>
       <c r="D2" s="2">
-        <v>0.00720560501370612</v>
+        <v>-2.78043849985307</v>
       </c>
       <c r="E2" s="2">
-        <v>0.0202322537269126</v>
+        <v>6.85504575547423</v>
       </c>
       <c r="F2" s="2">
-        <v>0.0141445193974288</v>
+        <v>0.388468323253279</v>
       </c>
       <c r="G2" s="2">
-        <v>0.009635137027188351</v>
+        <v>7.74177106823504</v>
       </c>
       <c r="H2" s="2">
-        <v>0.0184194708601831</v>
+        <v>-3.05734561193878</v>
       </c>
       <c r="I2" s="2">
-        <v>-0.00279249408101821</v>
+        <v>-4.96120194605937</v>
       </c>
       <c r="J2" s="2">
-        <v>0.0187642990661126</v>
+        <v>-6.67035347349027</v>
       </c>
       <c r="K2" s="2">
-        <v>0.0180195116887053</v>
+        <v>-11.3055715534159</v>
       </c>
       <c r="L2" s="2">
-        <v>0.0197539087284023</v>
+        <v>5.71172789417847</v>
       </c>
       <c r="M2" s="2">
-        <v>0.00689041891309065</v>
+        <v>-8.12147072953668</v>
       </c>
       <c r="N2" s="2">
-        <v>0.0036213237906126</v>
+        <v>-12.6986904229145</v>
       </c>
       <c r="O2" s="2">
-        <v>0.00498761638845485</v>
+        <v>-6.67292713815164</v>
       </c>
     </row>
   </sheetData>
